--- a/StreamLine Web Automator/output/output.xlsx
+++ b/StreamLine Web Automator/output/output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation\StreamLine Web Automator\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\StreamLine Web Automator\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C153F77-7C48-4B2F-9227-5BC4005C0463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF09717-AC14-4BBE-AF9B-E579F5530AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Run Summaries" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>File Name</t>
   </si>
@@ -72,28 +72,19 @@
   </si>
   <si>
     <t>Bug Write Up</t>
-  </si>
-  <si>
-    <t>|</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -229,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -249,7 +240,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -603,10 +593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,10 +610,9 @@
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -659,9 +648,6 @@
       </c>
       <c r="L1" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
